--- a/grupos/6ARHM - Estadisticos 20242.xlsx
+++ b/grupos/6ARHM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>Materia</t>
   </si>
@@ -215,12 +215,12 @@
     <t>Miguel Cruz Nayeli Nayreth</t>
   </si>
   <si>
+    <t>Saucedo Rivalcoba Liliana Guadalupe</t>
+  </si>
+  <si>
     <t>Barrientos Ortiz Yuliana Isabel</t>
   </si>
   <si>
-    <t>Saucedo Rivalcoba Liliana Guadalupe</t>
-  </si>
-  <si>
     <t>Martinez Cortes Wendy Karyme</t>
   </si>
   <si>
@@ -236,22 +236,31 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>OREA</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
     <t>RIVERA</t>
   </si>
   <si>
     <t>LOPEZ</t>
   </si>
   <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
+    <t>RANGEL</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
@@ -266,13 +275,16 @@
     <t>GUERRA</t>
   </si>
   <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
     <t>KEVIN RAUL</t>
   </si>
   <si>
     <t>EDUARDO</t>
-  </si>
-  <si>
-    <t>DIEGO ANTONIO</t>
   </si>
   <si>
     <t>DANA PAOLA</t>
@@ -792,22 +804,22 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -834,10 +846,10 @@
         <v>9</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -869,22 +881,22 @@
         <v>7</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -908,19 +920,19 @@
         <v>8</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W5">
         <v>8</v>
       </c>
       <c r="X5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -946,22 +958,22 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -985,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V6">
         <v>10</v>
@@ -997,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1023,22 +1035,22 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1062,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="U7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W7">
         <v>7</v>
@@ -1074,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1100,22 +1112,22 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1177,22 +1189,22 @@
         <v>10</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1225,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="X9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <v>10</v>
@@ -1254,22 +1266,22 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1290,13 +1302,13 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U10">
         <v>8</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W10">
         <v>10</v>
@@ -1322,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -1331,22 +1343,22 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1376,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="W11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y11">
         <v>10</v>
@@ -1408,22 +1420,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1444,16 +1456,16 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V12">
         <v>9</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X12">
         <v>8</v>
@@ -1485,22 +1497,22 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1562,22 +1574,22 @@
         <v>7</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1604,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="V14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <v>9</v>
       </c>
       <c r="Y14">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1639,22 +1651,22 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1675,22 +1687,22 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U15">
         <v>9</v>
       </c>
       <c r="V15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X15">
         <v>9</v>
       </c>
       <c r="Y15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1716,22 +1728,22 @@
         <v>10</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1793,22 +1805,22 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1829,19 +1841,19 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W17">
         <v>8</v>
       </c>
       <c r="X17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y17">
         <v>10</v>
@@ -1870,22 +1882,22 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1906,16 +1918,16 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U18">
         <v>8</v>
       </c>
       <c r="V18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X18">
         <v>9</v>
@@ -1947,22 +1959,22 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1986,10 +1998,10 @@
         <v>9</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W19">
         <v>8</v>
@@ -1998,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="Y19">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2024,22 +2036,22 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2060,16 +2072,16 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X20">
         <v>10</v>
@@ -2101,22 +2113,22 @@
         <v>10</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2137,19 +2149,19 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U21">
         <v>10</v>
       </c>
       <c r="V21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y21">
         <v>10</v>
@@ -2178,22 +2190,22 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2214,22 +2226,22 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V22">
         <v>9</v>
       </c>
       <c r="W22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X22">
         <v>9</v>
       </c>
       <c r="Y22">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2255,22 +2267,22 @@
         <v>8</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L23">
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2291,22 +2303,22 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X23">
         <v>7</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2332,22 +2344,22 @@
         <v>9</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2368,7 +2380,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U24">
         <v>5</v>
@@ -2409,22 +2421,22 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2448,19 +2460,19 @@
         <v>9</v>
       </c>
       <c r="U25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W25">
         <v>8</v>
       </c>
       <c r="X25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y25">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2486,22 +2498,22 @@
         <v>7</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2522,22 +2534,22 @@
         <v>-1</v>
       </c>
       <c r="T26">
+        <v>8</v>
+      </c>
+      <c r="U26">
         <v>6</v>
       </c>
-      <c r="U26">
-        <v>5</v>
-      </c>
       <c r="V26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2563,22 +2575,22 @@
         <v>7</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2599,22 +2611,22 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U27">
         <v>8</v>
       </c>
       <c r="V27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X27">
         <v>10</v>
       </c>
       <c r="Y27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2640,22 +2652,22 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L28">
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2676,22 +2688,22 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U28">
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <v>7</v>
+      </c>
+      <c r="W28">
         <v>6</v>
       </c>
-      <c r="V28">
-        <v>8</v>
-      </c>
-      <c r="W28">
-        <v>5</v>
-      </c>
       <c r="X28">
         <v>10</v>
       </c>
       <c r="Y28">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2717,22 +2729,22 @@
         <v>7</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2756,19 +2768,19 @@
         <v>5</v>
       </c>
       <c r="U29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V29">
         <v>6</v>
       </c>
       <c r="W29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X29">
         <v>7</v>
       </c>
       <c r="Y29">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2794,22 +2806,22 @@
         <v>5</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>-1</v>
@@ -2839,13 +2851,13 @@
         <v>5</v>
       </c>
       <c r="W30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X30">
         <v>5</v>
       </c>
       <c r="Y30">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2871,22 +2883,22 @@
         <v>9</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2907,7 +2919,7 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U31">
         <v>5</v>
@@ -2916,13 +2928,13 @@
         <v>6</v>
       </c>
       <c r="W31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X31">
         <v>8</v>
       </c>
       <c r="Y31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2948,22 +2960,22 @@
         <v>5</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L32">
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N32">
         <v>-1</v>
@@ -2999,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="Y32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3025,22 +3037,22 @@
         <v>10</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
         <v>-1</v>
@@ -3067,7 +3079,7 @@
         <v>10</v>
       </c>
       <c r="V33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W33">
         <v>10</v>
@@ -3102,22 +3114,22 @@
         <v>10</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I34">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>-1</v>
@@ -3179,22 +3191,22 @@
         <v>5</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L35">
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N35">
         <v>-1</v>
@@ -3221,7 +3233,7 @@
         <v>5</v>
       </c>
       <c r="V35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W35">
         <v>6</v>
@@ -3230,7 +3242,7 @@
         <v>8</v>
       </c>
       <c r="Y35">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3256,22 +3268,22 @@
         <v>10</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L36">
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N36">
         <v>-1</v>
@@ -3301,7 +3313,7 @@
         <v>10</v>
       </c>
       <c r="W36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X36">
         <v>10</v>
@@ -3333,22 +3345,22 @@
         <v>10</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <v>-1</v>
@@ -3410,22 +3422,22 @@
         <v>10</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N38">
         <v>-1</v>
@@ -3452,10 +3464,10 @@
         <v>8</v>
       </c>
       <c r="V38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X38">
         <v>10</v>
@@ -3487,22 +3499,22 @@
         <v>9</v>
       </c>
       <c r="H39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N39">
         <v>-1</v>
@@ -3523,22 +3535,22 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U39">
         <v>8</v>
       </c>
       <c r="V39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X39">
         <v>10</v>
       </c>
       <c r="Y39">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3564,22 +3576,22 @@
         <v>8</v>
       </c>
       <c r="H40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>-1</v>
@@ -3600,22 +3612,22 @@
         <v>-1</v>
       </c>
       <c r="T40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V40">
         <v>10</v>
       </c>
       <c r="W40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y40">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -3641,22 +3653,22 @@
         <v>10</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N41">
         <v>-1</v>
@@ -3718,22 +3730,22 @@
         <v>7</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <v>-1</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N42">
         <v>-1</v>
@@ -3754,16 +3766,16 @@
         <v>-1</v>
       </c>
       <c r="T42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X42">
         <v>8</v>
@@ -3911,16 +3923,16 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L4">
-        <v>79.2</v>
+        <v>89.8</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -3929,16 +3941,16 @@
         <v>100</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P4">
         <v>100</v>
       </c>
       <c r="Q4">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R4">
-        <v>79.2</v>
+        <v>89.8</v>
       </c>
       <c r="S4">
         <v>100</v>
@@ -3970,16 +3982,16 @@
         <v>100</v>
       </c>
       <c r="I5">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J5">
         <v>100</v>
       </c>
       <c r="K5">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L5">
-        <v>91.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -3988,16 +4000,16 @@
         <v>100</v>
       </c>
       <c r="O5">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P5">
         <v>100</v>
       </c>
       <c r="Q5">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R5">
-        <v>91.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="S5">
         <v>100</v>
@@ -4029,37 +4041,37 @@
         <v>100</v>
       </c>
       <c r="I6">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>92</v>
+        <v>94.5</v>
       </c>
       <c r="L6">
-        <v>91.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>100</v>
       </c>
       <c r="O6">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="P6">
         <v>100</v>
       </c>
       <c r="Q6">
-        <v>92</v>
+        <v>94.5</v>
       </c>
       <c r="R6">
-        <v>91.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="S6">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4094,13 +4106,13 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L7">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -4112,13 +4124,13 @@
         <v>100</v>
       </c>
       <c r="Q7">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R7">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S7">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4153,13 +4165,13 @@
         <v>100</v>
       </c>
       <c r="K8">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L8">
         <v>100</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>100</v>
@@ -4171,13 +4183,13 @@
         <v>100</v>
       </c>
       <c r="Q8">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R8">
         <v>100</v>
       </c>
       <c r="S8">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -4212,13 +4224,13 @@
         <v>100</v>
       </c>
       <c r="K9">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L9">
-        <v>70.8</v>
+        <v>83.7</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>100</v>
@@ -4230,13 +4242,13 @@
         <v>100</v>
       </c>
       <c r="Q9">
-        <v>96</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R9">
-        <v>70.8</v>
+        <v>83.7</v>
       </c>
       <c r="S9">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -4265,13 +4277,13 @@
         <v>100</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L10">
         <v>100</v>
@@ -4283,13 +4295,13 @@
         <v>100</v>
       </c>
       <c r="O10">
-        <v>100</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="P10">
         <v>100</v>
       </c>
       <c r="Q10">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R10">
         <v>100</v>
@@ -4330,7 +4342,7 @@
         <v>100</v>
       </c>
       <c r="K11">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -4348,7 +4360,7 @@
         <v>100</v>
       </c>
       <c r="Q11">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R11">
         <v>100</v>
@@ -4383,37 +4395,37 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
+        <v>98.2</v>
+      </c>
+      <c r="L12">
+        <v>49</v>
+      </c>
+      <c r="M12">
         <v>96</v>
       </c>
-      <c r="L12">
-        <v>100</v>
-      </c>
-      <c r="M12">
-        <v>92</v>
-      </c>
       <c r="N12">
         <v>100</v>
       </c>
       <c r="O12">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P12">
         <v>100</v>
       </c>
       <c r="Q12">
+        <v>98.2</v>
+      </c>
+      <c r="R12">
+        <v>49</v>
+      </c>
+      <c r="S12">
         <v>96</v>
-      </c>
-      <c r="R12">
-        <v>100</v>
-      </c>
-      <c r="S12">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -4442,7 +4454,7 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -4460,7 +4472,7 @@
         <v>100</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P13">
         <v>100</v>
@@ -4507,14 +4519,14 @@
         <v>100</v>
       </c>
       <c r="K14">
+        <v>98.2</v>
+      </c>
+      <c r="L14">
+        <v>91.8</v>
+      </c>
+      <c r="M14">
         <v>96</v>
       </c>
-      <c r="L14">
-        <v>83.3</v>
-      </c>
-      <c r="M14">
-        <v>92</v>
-      </c>
       <c r="N14">
         <v>100</v>
       </c>
@@ -4525,13 +4537,13 @@
         <v>100</v>
       </c>
       <c r="Q14">
+        <v>98.2</v>
+      </c>
+      <c r="R14">
+        <v>91.8</v>
+      </c>
+      <c r="S14">
         <v>96</v>
-      </c>
-      <c r="R14">
-        <v>83.3</v>
-      </c>
-      <c r="S14">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -4560,7 +4572,7 @@
         <v>100</v>
       </c>
       <c r="I15">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -4569,7 +4581,7 @@
         <v>100</v>
       </c>
       <c r="L15">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M15">
         <v>100</v>
@@ -4578,7 +4590,7 @@
         <v>100</v>
       </c>
       <c r="O15">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P15">
         <v>100</v>
@@ -4587,7 +4599,7 @@
         <v>100</v>
       </c>
       <c r="R15">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S15">
         <v>100</v>
@@ -4678,37 +4690,37 @@
         <v>100</v>
       </c>
       <c r="I17">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
+        <v>87.3</v>
+      </c>
+      <c r="L17">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="M17">
         <v>96</v>
       </c>
-      <c r="L17">
-        <v>70.8</v>
-      </c>
-      <c r="M17">
-        <v>92</v>
-      </c>
       <c r="N17">
         <v>100</v>
       </c>
       <c r="O17">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P17">
         <v>100</v>
       </c>
       <c r="Q17">
+        <v>87.3</v>
+      </c>
+      <c r="R17">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="S17">
         <v>96</v>
-      </c>
-      <c r="R17">
-        <v>70.8</v>
-      </c>
-      <c r="S17">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4737,37 +4749,37 @@
         <v>100</v>
       </c>
       <c r="I18">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>84</v>
+        <v>78.2</v>
       </c>
       <c r="L18">
-        <v>75</v>
+        <v>36.7</v>
       </c>
       <c r="M18">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N18">
         <v>100</v>
       </c>
       <c r="O18">
-        <v>95.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P18">
         <v>100</v>
       </c>
       <c r="Q18">
-        <v>84</v>
+        <v>78.2</v>
       </c>
       <c r="R18">
-        <v>75</v>
+        <v>36.7</v>
       </c>
       <c r="S18">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4796,37 +4808,37 @@
         <v>100</v>
       </c>
       <c r="I19">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>84</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="L19">
-        <v>87.5</v>
+        <v>42.9</v>
       </c>
       <c r="M19">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>100</v>
       </c>
       <c r="O19">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P19">
         <v>100</v>
       </c>
       <c r="Q19">
-        <v>84</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R19">
-        <v>87.5</v>
+        <v>42.9</v>
       </c>
       <c r="S19">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4855,37 +4867,37 @@
         <v>100</v>
       </c>
       <c r="I20">
-        <v>100</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>84</v>
+        <v>87.3</v>
       </c>
       <c r="L20">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M20">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>100</v>
       </c>
       <c r="O20">
-        <v>100</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="P20">
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>84</v>
+        <v>87.3</v>
       </c>
       <c r="R20">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S20">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4920,13 +4932,13 @@
         <v>100</v>
       </c>
       <c r="K21">
-        <v>96</v>
+        <v>92.7</v>
       </c>
       <c r="L21">
-        <v>91.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="M21">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N21">
         <v>100</v>
@@ -4938,13 +4950,13 @@
         <v>100</v>
       </c>
       <c r="Q21">
-        <v>96</v>
+        <v>92.7</v>
       </c>
       <c r="R21">
-        <v>91.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="S21">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4973,37 +4985,37 @@
         <v>100</v>
       </c>
       <c r="I22">
-        <v>85.7</v>
+        <v>83.3</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>80</v>
+        <v>87.3</v>
       </c>
       <c r="L22">
+        <v>40.8</v>
+      </c>
+      <c r="M22">
+        <v>98</v>
+      </c>
+      <c r="N22">
+        <v>100</v>
+      </c>
+      <c r="O22">
         <v>83.3</v>
       </c>
-      <c r="M22">
-        <v>96</v>
-      </c>
-      <c r="N22">
-        <v>100</v>
-      </c>
-      <c r="O22">
-        <v>85.7</v>
-      </c>
       <c r="P22">
         <v>100</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>87.3</v>
       </c>
       <c r="R22">
-        <v>83.3</v>
+        <v>40.8</v>
       </c>
       <c r="S22">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5032,16 +5044,16 @@
         <v>100</v>
       </c>
       <c r="I23">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="L23">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M23">
         <v>100</v>
@@ -5050,16 +5062,16 @@
         <v>100</v>
       </c>
       <c r="O23">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="P23">
         <v>100</v>
       </c>
       <c r="Q23">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="R23">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S23">
         <v>100</v>
@@ -5091,16 +5103,16 @@
         <v>100</v>
       </c>
       <c r="I24">
-        <v>81</v>
+        <v>57.1</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>85.5</v>
       </c>
       <c r="L24">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M24">
         <v>100</v>
@@ -5109,16 +5121,16 @@
         <v>100</v>
       </c>
       <c r="O24">
-        <v>81</v>
+        <v>57.1</v>
       </c>
       <c r="P24">
         <v>100</v>
       </c>
       <c r="Q24">
-        <v>100</v>
+        <v>85.5</v>
       </c>
       <c r="R24">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S24">
         <v>100</v>
@@ -5150,7 +5162,7 @@
         <v>100</v>
       </c>
       <c r="I25">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -5159,16 +5171,16 @@
         <v>100</v>
       </c>
       <c r="L25">
-        <v>79.2</v>
+        <v>87.8</v>
       </c>
       <c r="M25">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N25">
         <v>100</v>
       </c>
       <c r="O25">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P25">
         <v>100</v>
@@ -5177,10 +5189,10 @@
         <v>100</v>
       </c>
       <c r="R25">
-        <v>79.2</v>
+        <v>87.8</v>
       </c>
       <c r="S25">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5209,37 +5221,37 @@
         <v>100</v>
       </c>
       <c r="I26">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="L26">
-        <v>75</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M26">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N26">
         <v>100</v>
       </c>
       <c r="O26">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="P26">
         <v>100</v>
       </c>
       <c r="Q26">
-        <v>100</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="R26">
-        <v>75</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S26">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5274,7 +5286,7 @@
         <v>100</v>
       </c>
       <c r="K27">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="L27">
         <v>100</v>
@@ -5292,7 +5304,7 @@
         <v>100</v>
       </c>
       <c r="Q27">
-        <v>96</v>
+        <v>98.2</v>
       </c>
       <c r="R27">
         <v>100</v>
@@ -5327,37 +5339,37 @@
         <v>100</v>
       </c>
       <c r="I28">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L28">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M28">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N28">
         <v>100</v>
       </c>
       <c r="O28">
-        <v>90.5</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="P28">
         <v>100</v>
       </c>
       <c r="Q28">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R28">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S28">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5386,37 +5398,37 @@
         <v>100</v>
       </c>
       <c r="I29">
-        <v>81</v>
+        <v>83.3</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L29">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M29">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N29">
         <v>100</v>
       </c>
       <c r="O29">
-        <v>81</v>
+        <v>83.3</v>
       </c>
       <c r="P29">
         <v>100</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R29">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S29">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5445,37 +5457,37 @@
         <v>100</v>
       </c>
       <c r="I30">
-        <v>52.4</v>
+        <v>42.9</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>76</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="L30">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M30">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N30">
         <v>100</v>
       </c>
       <c r="O30">
-        <v>52.4</v>
+        <v>42.9</v>
       </c>
       <c r="P30">
         <v>100</v>
       </c>
       <c r="Q30">
-        <v>76</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="R30">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S30">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5504,37 +5516,37 @@
         <v>100</v>
       </c>
       <c r="I31">
-        <v>81</v>
+        <v>76.2</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>76</v>
+        <v>78.2</v>
       </c>
       <c r="L31">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M31">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N31">
         <v>100</v>
       </c>
       <c r="O31">
-        <v>81</v>
+        <v>76.2</v>
       </c>
       <c r="P31">
         <v>100</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>78.2</v>
       </c>
       <c r="R31">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S31">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5563,37 +5575,37 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>61.9</v>
+        <v>47.6</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>76</v>
+        <v>78.2</v>
       </c>
       <c r="L32">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M32">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N32">
         <v>100</v>
       </c>
       <c r="O32">
-        <v>61.9</v>
+        <v>47.6</v>
       </c>
       <c r="P32">
         <v>100</v>
       </c>
       <c r="Q32">
-        <v>76</v>
+        <v>78.2</v>
       </c>
       <c r="R32">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S32">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5628,13 +5640,13 @@
         <v>100</v>
       </c>
       <c r="K33">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="L33">
         <v>100</v>
       </c>
       <c r="M33">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N33">
         <v>100</v>
@@ -5646,13 +5658,13 @@
         <v>100</v>
       </c>
       <c r="Q33">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="R33">
         <v>100</v>
       </c>
       <c r="S33">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5681,7 +5693,7 @@
         <v>100</v>
       </c>
       <c r="I34">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J34">
         <v>100</v>
@@ -5699,7 +5711,7 @@
         <v>100</v>
       </c>
       <c r="O34">
-        <v>100</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="P34">
         <v>100</v>
@@ -5740,37 +5752,37 @@
         <v>100</v>
       </c>
       <c r="I35">
-        <v>61.9</v>
+        <v>50</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>72</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="L35">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="M35">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N35">
         <v>100</v>
       </c>
       <c r="O35">
-        <v>61.9</v>
+        <v>50</v>
       </c>
       <c r="P35">
         <v>100</v>
       </c>
       <c r="Q35">
-        <v>72</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="R35">
-        <v>66.7</v>
+        <v>32.7</v>
       </c>
       <c r="S35">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5805,10 +5817,10 @@
         <v>100</v>
       </c>
       <c r="K36">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="L36">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M36">
         <v>100</v>
@@ -5823,10 +5835,10 @@
         <v>100</v>
       </c>
       <c r="Q36">
-        <v>88</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="R36">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="S36">
         <v>100</v>
@@ -5976,7 +5988,7 @@
         <v>100</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="J39">
         <v>100</v>
@@ -5994,7 +6006,7 @@
         <v>100</v>
       </c>
       <c r="O39">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="P39">
         <v>100</v>
@@ -6094,7 +6106,7 @@
         <v>100</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="J41">
         <v>100</v>
@@ -6103,7 +6115,7 @@
         <v>100</v>
       </c>
       <c r="L41">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="M41">
         <v>100</v>
@@ -6112,7 +6124,7 @@
         <v>100</v>
       </c>
       <c r="O41">
-        <v>100</v>
+        <v>95.2</v>
       </c>
       <c r="P41">
         <v>100</v>
@@ -6121,7 +6133,7 @@
         <v>100</v>
       </c>
       <c r="R41">
-        <v>95.8</v>
+        <v>98</v>
       </c>
       <c r="S41">
         <v>100</v>
@@ -6153,37 +6165,37 @@
         <v>100</v>
       </c>
       <c r="I42">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>100</v>
+        <v>85.5</v>
       </c>
       <c r="L42">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="N42">
         <v>100</v>
       </c>
       <c r="O42">
-        <v>95.2</v>
+        <v>90.5</v>
       </c>
       <c r="P42">
         <v>100</v>
       </c>
       <c r="Q42">
-        <v>100</v>
+        <v>85.5</v>
       </c>
       <c r="R42">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="S42">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6264,7 +6276,7 @@
         <v>15.4</v>
       </c>
       <c r="H2">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -6296,7 +6308,7 @@
         <v>10.3</v>
       </c>
       <c r="H3">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -6307,7 +6319,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -6316,19 +6328,19 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
-        <v>92.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>7.7</v>
+        <v>5.1</v>
       </c>
       <c r="H4">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -6360,7 +6372,7 @@
         <v>5.1</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -6371,7 +6383,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -6380,19 +6392,19 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>94.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -6412,19 +6424,19 @@
         <v>39</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>94.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7" s="2">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -6477,7 +6489,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6512,16 +6524,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920425</v>
+        <v>21330051920053</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -6535,16 +6547,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920425</v>
+        <v>21330051920053</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -6558,22 +6570,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920425</v>
+        <v>21330051920053</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -6581,22 +6593,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920359</v>
+        <v>21330051920053</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -6604,22 +6616,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>21330051920237</v>
+        <v>21330051920242</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6627,22 +6639,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920071</v>
+        <v>21330051920242</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -6650,10 +6662,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920218</v>
+        <v>21330051920242</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>80</v>
@@ -6662,7 +6674,7 @@
         <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -6673,24 +6685,162 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
+        <v>21330051920242</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>22330051920425</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>22330051920425</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21330051920359</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>22330051920071</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>22330051920218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
         <v>22330051920317</v>
       </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="G9">
+      <c r="G15">
         <v>5</v>
       </c>
     </row>

--- a/grupos/6ARHM - Estadisticos 20242.xlsx
+++ b/grupos/6ARHM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>Materia</t>
   </si>
@@ -215,10 +215,10 @@
     <t>Miguel Cruz Nayeli Nayreth</t>
   </si>
   <si>
+    <t>Barrientos Ortiz Yuliana Isabel</t>
+  </si>
+  <si>
     <t>Saucedo Rivalcoba Liliana Guadalupe</t>
-  </si>
-  <si>
-    <t>Barrientos Ortiz Yuliana Isabel</t>
   </si>
   <si>
     <t>Martinez Cortes Wendy Karyme</t>
@@ -1047,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>9</v>
@@ -1083,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="X7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y7">
         <v>9</v>
@@ -1432,7 +1432,7 @@
         <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M12">
         <v>10</v>
@@ -1468,7 +1468,7 @@
         <v>10</v>
       </c>
       <c r="X12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <v>10</v>
@@ -1663,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -1894,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M18">
         <v>8</v>
@@ -1971,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M19">
         <v>9</v>
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>10</v>
@@ -2202,7 +2202,7 @@
         <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M22">
         <v>9</v>
@@ -2279,7 +2279,7 @@
         <v>9</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M23">
         <v>10</v>
@@ -2315,7 +2315,7 @@
         <v>9</v>
       </c>
       <c r="X23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y23">
         <v>9</v>
@@ -2356,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -2392,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="X24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y24">
         <v>9</v>
@@ -2664,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -2700,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y28">
         <v>8</v>
@@ -2741,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M29">
         <v>8</v>
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="X29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y29">
         <v>8</v>
@@ -2818,7 +2818,7 @@
         <v>7</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M30">
         <v>7</v>
@@ -2854,7 +2854,7 @@
         <v>6</v>
       </c>
       <c r="X30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y30">
         <v>6</v>
@@ -2895,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -2972,7 +2972,7 @@
         <v>6</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M32">
         <v>7</v>
@@ -3008,7 +3008,7 @@
         <v>6</v>
       </c>
       <c r="X32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y32">
         <v>6</v>
@@ -3203,7 +3203,7 @@
         <v>6</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -3280,7 +3280,7 @@
         <v>10</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M36">
         <v>10</v>
@@ -3742,7 +3742,7 @@
         <v>6</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M42">
         <v>7</v>
@@ -3778,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="X42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y42">
         <v>7</v>
@@ -4109,7 +4109,7 @@
         <v>98.2</v>
       </c>
       <c r="L7">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M7">
         <v>96</v>
@@ -4127,7 +4127,7 @@
         <v>98.2</v>
       </c>
       <c r="R7">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S7">
         <v>96</v>
@@ -4404,7 +4404,7 @@
         <v>98.2</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="M12">
         <v>96</v>
@@ -4422,7 +4422,7 @@
         <v>98.2</v>
       </c>
       <c r="R12">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="S12">
         <v>96</v>
@@ -4758,7 +4758,7 @@
         <v>78.2</v>
       </c>
       <c r="L18">
-        <v>36.7</v>
+        <v>83.7</v>
       </c>
       <c r="M18">
         <v>98</v>
@@ -4776,7 +4776,7 @@
         <v>78.2</v>
       </c>
       <c r="R18">
-        <v>36.7</v>
+        <v>83.7</v>
       </c>
       <c r="S18">
         <v>98</v>
@@ -4817,7 +4817,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="L19">
-        <v>42.9</v>
+        <v>89.8</v>
       </c>
       <c r="M19">
         <v>98</v>
@@ -4835,7 +4835,7 @@
         <v>90.90000000000001</v>
       </c>
       <c r="R19">
-        <v>42.9</v>
+        <v>89.8</v>
       </c>
       <c r="S19">
         <v>98</v>
@@ -4876,7 +4876,7 @@
         <v>87.3</v>
       </c>
       <c r="L20">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M20">
         <v>96</v>
@@ -4894,7 +4894,7 @@
         <v>87.3</v>
       </c>
       <c r="R20">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S20">
         <v>96</v>
@@ -4994,7 +4994,7 @@
         <v>87.3</v>
       </c>
       <c r="L22">
-        <v>40.8</v>
+        <v>87.8</v>
       </c>
       <c r="M22">
         <v>98</v>
@@ -5012,7 +5012,7 @@
         <v>87.3</v>
       </c>
       <c r="R22">
-        <v>40.8</v>
+        <v>87.8</v>
       </c>
       <c r="S22">
         <v>98</v>
@@ -5053,7 +5053,7 @@
         <v>98.2</v>
       </c>
       <c r="L23">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M23">
         <v>100</v>
@@ -5071,7 +5071,7 @@
         <v>98.2</v>
       </c>
       <c r="R23">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S23">
         <v>100</v>
@@ -5407,7 +5407,7 @@
         <v>89.09999999999999</v>
       </c>
       <c r="L29">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M29">
         <v>96</v>
@@ -5425,7 +5425,7 @@
         <v>89.09999999999999</v>
       </c>
       <c r="R29">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S29">
         <v>96</v>
@@ -5466,7 +5466,7 @@
         <v>70.90000000000001</v>
       </c>
       <c r="L30">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M30">
         <v>94</v>
@@ -5484,7 +5484,7 @@
         <v>70.90000000000001</v>
       </c>
       <c r="R30">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S30">
         <v>94</v>
@@ -5525,7 +5525,7 @@
         <v>78.2</v>
       </c>
       <c r="L31">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M31">
         <v>96</v>
@@ -5543,7 +5543,7 @@
         <v>78.2</v>
       </c>
       <c r="R31">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S31">
         <v>96</v>
@@ -5584,7 +5584,7 @@
         <v>78.2</v>
       </c>
       <c r="L32">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M32">
         <v>94</v>
@@ -5602,7 +5602,7 @@
         <v>78.2</v>
       </c>
       <c r="R32">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S32">
         <v>94</v>
@@ -5761,7 +5761,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="L35">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="M35">
         <v>94</v>
@@ -5779,7 +5779,7 @@
         <v>69.09999999999999</v>
       </c>
       <c r="R35">
-        <v>32.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="S35">
         <v>94</v>
@@ -6174,7 +6174,7 @@
         <v>85.5</v>
       </c>
       <c r="L42">
-        <v>49</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="M42">
         <v>98</v>
@@ -6192,7 +6192,7 @@
         <v>85.5</v>
       </c>
       <c r="R42">
-        <v>49</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S42">
         <v>98</v>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>39</v>
@@ -6340,7 +6340,7 @@
         <v>5.1</v>
       </c>
       <c r="H4">
-        <v>9.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -6351,28 +6351,28 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>39</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>94.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -6489,7 +6489,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6593,22 +6593,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>21330051920053</v>
+        <v>21330051920242</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -6628,10 +6628,10 @@
         <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -6651,10 +6651,10 @@
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -6662,19 +6662,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>21330051920242</v>
+        <v>22330051920425</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -6685,22 +6685,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920242</v>
+        <v>22330051920425</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6708,22 +6708,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920425</v>
+        <v>21330051920359</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -6731,16 +6731,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920425</v>
+        <v>22330051920071</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -6754,22 +6754,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>21330051920359</v>
+        <v>22330051920218</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12">
         <v>5</v>
@@ -6777,16 +6777,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>22330051920071</v>
+        <v>22330051920317</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -6795,52 +6795,6 @@
         <v>63</v>
       </c>
       <c r="G13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>22330051920218</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>22330051920317</v>
-      </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15">
         <v>5</v>
       </c>
     </row>
